--- a/Design/全方位カメラ 計算.xlsx
+++ b/Design/全方位カメラ 計算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\寺田侑史\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h13-k\OneDrive\デスクトップ\2024-TOINIOT2\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A961FB44-129C-41ED-BDAA-6EB40D9705D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DF539-112E-4A50-87FB-E7C2A0E15C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23527F-DB02-46C5-8A62-E384B8FA0D3D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6F23527F-DB02-46C5-8A62-E384B8FA0D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>焦点距離</t>
     <rPh sb="0" eb="4">
@@ -125,6 +134,20 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aの値</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bの値</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,45 +223,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +272,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$B$2" max="30000" page="10" val="36"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$B$2" max="30000" page="10" val="46"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,7 +290,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C4C842-EEE0-B276-73EF-B7B2E201EFD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,13 +337,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>216354</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>163287</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>355295</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -669,157 +683,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B190E80-811C-4727-98D0-C58CB23651C7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="22.15" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="12">
+      <c r="D1" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <f>B2/4/TAN(RADIANS(B4/2))</f>
-        <v>24.727296775091602</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>31.595990323728159</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <f>-1/TAN(RADIANS((B4/2+90)/2)*-1)</f>
         <v>0.70020753820970982</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="str">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="str">
         <f>_xlfn.TEXTJOIN("", TRUE, "(", B6, ")²=a²+(", B8, ")²{a⁴/", B2/2*B2/2, "+a²}")</f>
-        <v>(24.7272967750916)²=a²+(0.70020753820971)²{a⁴/324+a²}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+        <v>(31.5959903237282)²=a²+(0.70020753820971)²{a⁴/529+a²}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <f>((-1*(1+B8^2))+((1+B8^2)^2-4*(B8^2/(B2/2)^2)*(-1*(B6^2)))^0.5)/(2*(B8^2/(B2/2)^2))</f>
-        <v>311.65631282642022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+        <v>508.84626384313674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2">
         <f>B6^2-B12</f>
-        <v>299.78289297703537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+        <v>489.46034069398672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2">
         <f>SQRT(B14)+B6</f>
-        <v>42.041536376559392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
+        <v>53.719740925603659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B18" s="2">
+        <f>SQRT(B12)</f>
+        <v>22.557620970375773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B20" s="2">
+        <f>SQRT(B14)</f>
+        <v>22.123750601875503</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Design/全方位カメラ 計算.xlsx
+++ b/Design/全方位カメラ 計算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h13-k\OneDrive\デスクトップ\2024-TOINIOT2\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DF539-112E-4A50-87FB-E7C2A0E15C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511E996-BF1F-45AA-812E-368C80A0DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6F23527F-DB02-46C5-8A62-E384B8FA0D3D}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.15" x14ac:dyDescent="0.7"/>
